--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787392.8259215797</v>
+        <v>784957.1889978729</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.6214982250928</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>145.7197662098041</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>105.9968419205281</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>341.5003631777255</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559971</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.8350005962783</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1111,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>370.6027832344693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>219.5990615050555</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329758</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>84.87840739117671</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>92.08306421689916</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337184</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>7.018581172448849</v>
       </c>
       <c r="D16" t="n">
-        <v>122.2832984379746</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.13809394730799</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503962</v>
       </c>
       <c r="H22" t="n">
-        <v>28.45765197016542</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.23631477519741</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.23631843387943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613462</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1343012721642</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365884</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3035,10 +3035,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>33.84547402811469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833976</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>137.4337101450029</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>42.54416032354763</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161908222</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187878</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6452826062362406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.96996784159884</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369974</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>564.3163447387531</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,7 +4410,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.5862204338721</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>470.5862204338721</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>320.4695810215363</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>320.4695810215363</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>173.579633523626</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621292</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641118</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.2346852641118</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1935.366530930991</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1935.366530930991</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1577.100832324241</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.102307357682</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>623.1279902937557</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535336</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1535.524858594925</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.259159988174</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>791.4709073899301</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
         <v>417.1246616985469</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535336</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.843444452132</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2039.9250181961</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.962501255688</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648938</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506935</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>515.922645261086</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
         <v>101.3471995907325</v>
@@ -5039,52 +5039,52 @@
         <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386829</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420317</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
         <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
         <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3740.852367414068</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3487.361651046676</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3156.298763703106</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2803.530108432991</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2430.064350171911</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2039.9250181961</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>824.3450309810719</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.658805224961</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1878.967112576028</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2351.938665441777</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
         <v>2351.938665441777</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>836.6019851402563</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>667.6658022123494</v>
+        <v>203.8650582458547</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000136</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176205</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197101</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197101</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
         <v>78.51106622469182</v>
@@ -5200,10 +5200,10 @@
         <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5218,13 +5218,13 @@
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
         <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
         <v>1667.488017920201</v>
@@ -5233,16 +5233,16 @@
         <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1285.384115181804</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1285.384115181804</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>1057.394564283786</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.6019851402563</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>241.498637552449</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>265.7263000409206</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>756.4586328846718</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1348.476987136799</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1970.572950536136</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.44942553633</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.44942553633</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1071.787127892376</v>
+        <v>561.9183350635717</v>
       </c>
       <c r="C16" t="n">
-        <v>902.850944964469</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>406.9157655494122</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861977</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149099</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863481</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>2025.526801863481</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1770.842313657594</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1481.425143620633</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1253.435592722616</v>
+        <v>964.3593790373416</v>
       </c>
       <c r="Y16" t="n">
-        <v>1253.435592722616</v>
+        <v>743.5667998938114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,10 +5516,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811725</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969311</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>114.9565346495162</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138406</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935556</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656487</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="D22" t="n">
-        <v>666.6476097656487</v>
+        <v>363.7369613277349</v>
       </c>
       <c r="E22" t="n">
-        <v>518.7345161832557</v>
+        <v>215.8238677453418</v>
       </c>
       <c r="F22" t="n">
-        <v>371.8445686853454</v>
+        <v>215.8238677453418</v>
       </c>
       <c r="G22" t="n">
-        <v>204.6484694002254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667325</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523795</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,22 +6066,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.9555321712451</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433382</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310024</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6157,19 +6157,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597622</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773692</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400742</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2303.393082295247</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892234</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="35">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811331</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532262</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408903</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7108,7 +7108,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7372,10 +7372,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835326</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711968</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888037</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.580456911439</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.681434529217</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7452516013096</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6286121889739</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7155186065806</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8255711086704</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>248.6294718235501</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>106.9176406657484</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.329899359456</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803177</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.8856819882012</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726111</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
         <v>89.71507747034039</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>160.0545791069288</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.228239926179</v>
       </c>
       <c r="D16" t="n">
-        <v>26.3321745802378</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.6938862346293</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067396</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.265836318569</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187266</v>
       </c>
       <c r="H22" t="n">
-        <v>111.8370608760585</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>117.1847295890518</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124932</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>38.89198472948041</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7699989900977</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459016</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>148.7507642442413</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>106.0713126946647</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237471</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>251.4923607175918</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228761</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>68.29586847696692</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914482.6239350392</v>
+        <v>914482.623935039</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
@@ -26326,34 +26326,34 @@
         <v>421406.8801099662</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="J2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="J2" t="n">
-        <v>423751.9648372533</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185158</v>
+        <v>143114.1392185157</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051379</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115332</v>
+        <v>37377.32855115327</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224847</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
         <v>12287.79922451209</v>
@@ -26451,7 +26451,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1097205.712063406</v>
+        <v>-1097205.712063407</v>
       </c>
       <c r="C6" t="n">
-        <v>231539.0336641856</v>
+        <v>231539.033664186</v>
       </c>
       <c r="D6" t="n">
         <v>231539.033664186</v>
       </c>
       <c r="E6" t="n">
-        <v>145458.77736617</v>
+        <v>145248.8131223253</v>
       </c>
       <c r="F6" t="n">
-        <v>142363.0169303971</v>
+        <v>142317.1119348311</v>
       </c>
       <c r="G6" t="n">
-        <v>299075.2785959493</v>
+        <v>299040.5406705135</v>
       </c>
       <c r="H6" t="n">
-        <v>310242.5148315278</v>
+        <v>310207.7769060922</v>
       </c>
       <c r="I6" t="n">
-        <v>310242.5148315279</v>
+        <v>310207.7769060924</v>
       </c>
       <c r="J6" t="n">
-        <v>92711.31243425059</v>
+        <v>92676.57450881469</v>
       </c>
       <c r="K6" t="n">
-        <v>310242.514831528</v>
+        <v>310207.7769060922</v>
       </c>
       <c r="L6" t="n">
-        <v>310242.514831528</v>
+        <v>310207.7769060924</v>
       </c>
       <c r="M6" t="n">
-        <v>272865.1862803747</v>
+        <v>272830.4483549391</v>
       </c>
       <c r="N6" t="n">
-        <v>266460.1082730389</v>
+        <v>266425.3703476029</v>
       </c>
       <c r="O6" t="n">
-        <v>307219.2168543033</v>
+        <v>307184.4789288676</v>
       </c>
       <c r="P6" t="n">
-        <v>310242.5148315281</v>
+        <v>310207.7769060922</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.3883278086478</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383878</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>261.1562795319073</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>60.0289663385001</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.43000689453623</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.99697958565901</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>36.27326250724212</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.110593883981693</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.452939267845068e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-7.922551503725117e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.627646248735497e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.639458185837654e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3.821858654467206e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>489.2441764904011</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
         <v>660.6327957845328</v>
@@ -31853,10 +31853,10 @@
         <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
         <v>332.8207874071845</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>162.3138253263505</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>266.6561007250667</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,16 +32549,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>504.288299623204</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>369.1789913099997</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>500.4415752611932</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>350.6897967105269</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
         <v>518.4987618625146</v>
@@ -35501,10 +35501,10 @@
         <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
         <v>192.839013321163</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>24.47238635199148</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>128.8146617507077</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>370.3138922088737</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>357.8453308167487</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899112</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
